--- a/results.xlsx
+++ b/results.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -180,12 +193,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$6</f>
+              <f>'Sheet1'!$B$2:$B$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$2:$C$6</f>
+              <f>'Sheet1'!$C$2:$C$11</f>
             </numRef>
           </val>
         </ser>
@@ -298,12 +311,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$6</f>
+              <f>'Sheet1'!$B$2:$B$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$6</f>
+              <f>'Sheet1'!$D$2:$D$11</f>
             </numRef>
           </val>
         </ser>
@@ -710,13 +723,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.7109375" customWidth="1" min="1" max="1"/>
+    <col width="8.7109375" customWidth="1" min="2" max="2"/>
+    <col width="11.7109375" customWidth="1" min="3" max="3"/>
+    <col width="10.7109375" customWidth="1" min="4" max="4"/>
+    <col width="8.7109375" customWidth="1" min="5" max="6"/>
+    <col width="13.7109375" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -767,20 +788,20 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15.13</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>4.02</v>
+        <v>4.92</v>
       </c>
       <c r="E2" t="n">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="F2" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
@@ -796,20 +817,20 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.51</v>
+        <v>5.75</v>
       </c>
       <c r="D3" t="n">
-        <v>9.77</v>
+        <v>2.06</v>
       </c>
       <c r="E3" t="n">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
+          <t>mist</t>
         </is>
       </c>
     </row>
@@ -825,16 +846,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13.97</v>
+        <v>15.27</v>
       </c>
       <c r="D4" t="n">
-        <v>6.69</v>
+        <v>7.72</v>
       </c>
       <c r="E4" t="n">
         <v>1007</v>
       </c>
       <c r="F4" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -854,20 +875,20 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13.55</v>
+        <v>14.2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.12</v>
+        <v>8.75</v>
       </c>
       <c r="E5" t="n">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>clear sky</t>
+          <t>light rain</t>
         </is>
       </c>
     </row>
@@ -883,25 +904,170 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.17</v>
+        <v>18.03</v>
       </c>
       <c r="D6" t="n">
-        <v>1.54</v>
+        <v>8.23</v>
       </c>
       <c r="E6" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="F6" t="n">
         <v>96</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F7" t="n">
+        <v>89</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>mist</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F8" t="n">
+        <v>98</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>mist</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1007</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>994</v>
+      </c>
+      <c r="F10" t="n">
+        <v>73</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tokyo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F11" t="n">
+        <v>96</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>